--- a/Audio_Optical_Trigger/Audio_Optical_Trigger_bom_A.xlsx
+++ b/Audio_Optical_Trigger/Audio_Optical_Trigger_bom_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew Maatman\Documents\KiCad Projects\Projects\Slot Car Projects\Audio_Optical_Trigger\Audio_Optical_Trigger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2726AAE-5DEE-42C9-B141-3C2335783523}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4586B83-F856-4332-8D6F-D3339E86A44A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,18 +145,12 @@
     <t>Group Select</t>
   </si>
   <si>
-    <t>277-1275-ND</t>
-  </si>
-  <si>
     <t>J302</t>
   </si>
   <si>
     <t>RX1</t>
   </si>
   <si>
-    <t>277-1274-ND</t>
-  </si>
-  <si>
     <t>J402</t>
   </si>
   <si>
@@ -173,9 +167,6 @@
   </si>
   <si>
     <t>TX1</t>
-  </si>
-  <si>
-    <t>277-1273-ND</t>
   </si>
   <si>
     <t>J401</t>
@@ -300,6 +291,15 @@
   <si>
     <t xml:space="preserve">        R201 R203 R303 R403 R503 R601 R602 R603 R604 R605 R606 R701 R702 R703 R704 R705 R706 R801 R802 R803 R804 R805 R806 R904 R905 R906
 </t>
+  </si>
+  <si>
+    <t>277-1721-ND</t>
+  </si>
+  <si>
+    <t>277-1722-ND</t>
+  </si>
+  <si>
+    <t>277-1860-ND</t>
   </si>
 </sst>
 </file>
@@ -1145,15 +1145,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.81640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.54296875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.81640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -1348,138 +1349,138 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -1488,26 +1489,26 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1">
         <v>100</v>
@@ -1516,105 +1517,105 @@
         <v>6</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C30" s="1">
         <v>4</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C32" s="1">
         <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
